--- a/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -385,6 +385,42 @@
   </si>
   <si>
     <t>58542856</t>
+  </si>
+  <si>
+    <t>58563563</t>
+  </si>
+  <si>
+    <t>58564254</t>
+  </si>
+  <si>
+    <t>01-26-2022</t>
+  </si>
+  <si>
+    <t>58564842</t>
+  </si>
+  <si>
+    <t>58565021</t>
+  </si>
+  <si>
+    <t>58569541</t>
+  </si>
+  <si>
+    <t>58569542</t>
+  </si>
+  <si>
+    <t>01-28-2022</t>
+  </si>
+  <si>
+    <t>58569563</t>
+  </si>
+  <si>
+    <t>58569568</t>
+  </si>
+  <si>
+    <t>58569578</t>
+  </si>
+  <si>
+    <t>58569821</t>
   </si>
 </sst>
 </file>
@@ -407,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="142">
+  <fills count="174">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,8 +1150,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="141">
+  <borders count="173">
     <border>
       <left/>
       <right/>
@@ -1681,11 +1877,123 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1761,7 +2069,23 @@
     <xf applyBorder="true" applyFill="true" borderId="134" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="136" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="138" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="140" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="172" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2279,8 +2603,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="75" t="s">
-        <v>120</v>
+      <c r="Q2" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2363,11 +2687,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="68" t="s">
-        <v>116</v>
+      <c r="Q3" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>129</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2394,8 +2718,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="66" t="s">
-        <v>115</v>
+      <c r="AD3" s="86" t="s">
+        <v>128</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2449,8 +2773,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="69" t="s">
-        <v>117</v>
+      <c r="Q4" s="91" t="s">
+        <v>132</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -421,6 +421,21 @@
   </si>
   <si>
     <t>58569821</t>
+  </si>
+  <si>
+    <t>58575711</t>
+  </si>
+  <si>
+    <t>58575712</t>
+  </si>
+  <si>
+    <t>03-07-2022</t>
+  </si>
+  <si>
+    <t>58575713</t>
+  </si>
+  <si>
+    <t>58575714</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="174">
+  <fills count="188">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,8 +1325,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="173">
+  <borders count="187">
     <border>
       <left/>
       <right/>
@@ -1989,11 +2074,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2085,7 +2219,14 @@
     <xf applyBorder="true" applyFill="true" borderId="166" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="168" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="170" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="172" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="186" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2603,8 +2744,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="84" t="s">
-        <v>126</v>
+      <c r="Q2" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2687,11 +2828,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="88" t="s">
-        <v>129</v>
+      <c r="Q3" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="97" t="s">
+        <v>136</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2718,8 +2859,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="86" t="s">
-        <v>128</v>
+      <c r="AD3" s="95" t="s">
+        <v>135</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2773,8 +2914,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="91" t="s">
-        <v>132</v>
+      <c r="Q4" s="98" t="s">
+        <v>137</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>58575714</t>
+  </si>
+  <si>
+    <t>59070057</t>
+  </si>
+  <si>
+    <t>59070058</t>
+  </si>
+  <si>
+    <t>05-17-2022</t>
+  </si>
+  <si>
+    <t>59070059</t>
+  </si>
+  <si>
+    <t>59070060</t>
   </si>
 </sst>
 </file>
@@ -458,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="188">
+  <fills count="202">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1395,8 +1410,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="187">
+  <borders count="201">
     <border>
       <left/>
       <right/>
@@ -2123,11 +2208,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2226,7 +2360,14 @@
     <xf applyBorder="true" applyFill="true" borderId="180" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="182" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="184" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="186" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="200" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2744,8 +2885,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="93" t="s">
-        <v>133</v>
+      <c r="Q2" s="100" t="s">
+        <v>138</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2828,11 +2969,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="97" t="s">
-        <v>136</v>
+      <c r="Q3" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>141</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2859,8 +3000,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="95" t="s">
-        <v>135</v>
+      <c r="AD3" s="102" t="s">
+        <v>140</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2914,8 +3055,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="98" t="s">
-        <v>137</v>
+      <c r="Q4" s="105" t="s">
+        <v>142</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/stg/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>59071673</t>
+  </si>
+  <si>
+    <t>59072481</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +345,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -464,11 +477,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -482,7 +502,8 @@
     <xf applyBorder="true" applyFill="true" borderId="9" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="11" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="13" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1084,8 +1105,8 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>69</v>
+      <c r="Q3" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>70</v>
